--- a/Merged_SoftMax_CLR_data.xlsx
+++ b/Merged_SoftMax_CLR_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80507BEF-C35F-41DB-9FAA-6E2AE8B88C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0CA1D5-C2D5-4EDF-9028-65019697E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="正常风化" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="92">
   <si>
     <t>文物采样点</t>
   </si>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3789,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R11"/>
+      <selection activeCell="A2" sqref="A2:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4415,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED59DDB5-1685-4E2A-9C1A-A401467D0CC4}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4647,6 +4647,3590 @@
         <v>87</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>0.48598075499629889</v>
+      </c>
+      <c r="C5">
+        <v>1.0643967431532141E-2</v>
+      </c>
+      <c r="D5">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="E5">
+        <v>-6.624722427831238E-2</v>
+      </c>
+      <c r="F5">
+        <v>-6.4071058475203557E-2</v>
+      </c>
+      <c r="G5">
+        <v>-5.6713545521835697E-2</v>
+      </c>
+      <c r="H5">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I5">
+        <v>-4.0444115470022253E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.1045299777942265</v>
+      </c>
+      <c r="K5">
+        <v>5.147298297557365E-2</v>
+      </c>
+      <c r="L5">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="M5">
+        <v>-6.8008882309400484E-2</v>
+      </c>
+      <c r="N5">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O5">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P5">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>0.45000147184363082</v>
+      </c>
+      <c r="C6">
+        <v>-4.7628859909923722E-2</v>
+      </c>
+      <c r="D6">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="E6">
+        <v>-6.4937741014395145E-2</v>
+      </c>
+      <c r="F6">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="G6">
+        <v>-5.1853051131848238E-2</v>
+      </c>
+      <c r="H6">
+        <v>-5.5459068028613043E-2</v>
+      </c>
+      <c r="I6">
+        <v>-5.988931735892418E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.25723411144799929</v>
+      </c>
+      <c r="K6">
+        <v>-2.9142503900390238E-3</v>
+      </c>
+      <c r="L6">
+        <v>-6.9471019398899381E-2</v>
+      </c>
+      <c r="M6">
+        <v>-6.9367990344706268E-2</v>
+      </c>
+      <c r="N6">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="O6">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>0.61840829147547116</v>
+      </c>
+      <c r="C7">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="D7">
+        <v>-6.8794059319949002E-2</v>
+      </c>
+      <c r="E7">
+        <v>-5.7850701330284207E-2</v>
+      </c>
+      <c r="F7">
+        <v>-6.1295832549252749E-2</v>
+      </c>
+      <c r="G7">
+        <v>-2.380469869577221E-2</v>
+      </c>
+      <c r="H7">
+        <v>-6.7274148488051105E-2</v>
+      </c>
+      <c r="I7">
+        <v>-6.8084767598396712E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.10224657296295719</v>
+      </c>
+      <c r="K7">
+        <v>-3.0492306356122802E-2</v>
+      </c>
+      <c r="L7">
+        <v>-6.0890522994080237E-2</v>
+      </c>
+      <c r="M7">
+        <v>-7.0212642763053459E-2</v>
+      </c>
+      <c r="N7">
+        <v>-6.9098041486328463E-2</v>
+      </c>
+      <c r="O7">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="P7">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>0.56233194118656682</v>
+      </c>
+      <c r="C8">
+        <v>-6.2217518164654713E-2</v>
+      </c>
+      <c r="D8">
+        <v>-6.8424967103381182E-2</v>
+      </c>
+      <c r="E8">
+        <v>-4.1592768465015258E-2</v>
+      </c>
+      <c r="F8">
+        <v>-5.6510669946793518E-2</v>
+      </c>
+      <c r="G8">
+        <v>7.2143715315521495E-2</v>
+      </c>
+      <c r="H8">
+        <v>-6.3318839750557798E-2</v>
+      </c>
+      <c r="I8">
+        <v>-6.4019680759768882E-2</v>
+      </c>
+      <c r="J8">
+        <v>5.1819326048400817E-2</v>
+      </c>
+      <c r="K8">
+        <v>-5.1104182161451003E-2</v>
+      </c>
+      <c r="L8">
+        <v>-6.7323645517478131E-2</v>
+      </c>
+      <c r="M8">
+        <v>-6.8925567824246192E-2</v>
+      </c>
+      <c r="N8">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O8">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P8">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>0.45157928491261839</v>
+      </c>
+      <c r="C9">
+        <v>-1.286311892372464E-2</v>
+      </c>
+      <c r="D9">
+        <v>-6.9898115352660412E-2</v>
+      </c>
+      <c r="E9">
+        <v>-6.336816942877524E-2</v>
+      </c>
+      <c r="F9">
+        <v>-6.0307257276954039E-2</v>
+      </c>
+      <c r="G9">
+        <v>-3.5411838442141283E-2</v>
+      </c>
+      <c r="H9">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="I9">
+        <v>-4.4186453277362182E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.15181395484425789</v>
+      </c>
+      <c r="K9">
+        <v>3.5397262669990229E-2</v>
+      </c>
+      <c r="L9">
+        <v>-7.0612328188085549E-2</v>
+      </c>
+      <c r="M9">
+        <v>-6.7857507251446347E-2</v>
+      </c>
+      <c r="N9">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="O9">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="P9">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>0.45288194951116317</v>
+      </c>
+      <c r="C10">
+        <v>-1.341018532029732E-2</v>
+      </c>
+      <c r="D10">
+        <v>-6.7853494819786739E-2</v>
+      </c>
+      <c r="E10">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="F10">
+        <v>-5.95797460965998E-2</v>
+      </c>
+      <c r="G10">
+        <v>-1.3614475412227951E-2</v>
+      </c>
+      <c r="H10">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="I10">
+        <v>-4.364511892601753E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.1340872610535534</v>
+      </c>
+      <c r="K10">
+        <v>3.9705238581643411E-2</v>
+      </c>
+      <c r="L10">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="M10">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="N10">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O10">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="P10">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>0.54136400322840983</v>
+      </c>
+      <c r="C11">
+        <v>-4.0556900726392377E-2</v>
+      </c>
+      <c r="D11">
+        <v>-6.9410815173527332E-2</v>
+      </c>
+      <c r="E11">
+        <v>-4.9838579499596643E-2</v>
+      </c>
+      <c r="F11">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G11">
+        <v>5.6598062953994867E-2</v>
+      </c>
+      <c r="H11">
+        <v>-6.3660209846650537E-2</v>
+      </c>
+      <c r="I11">
+        <v>-6.7090395480226162E-2</v>
+      </c>
+      <c r="J11">
+        <v>6.5879741727199015E-2</v>
+      </c>
+      <c r="K11">
+        <v>-1.8765133171913199E-2</v>
+      </c>
+      <c r="L11">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M11">
+        <v>-6.880548829701387E-2</v>
+      </c>
+      <c r="N11">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O11">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P11">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>0.48445497906002799</v>
+      </c>
+      <c r="C12">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D12">
+        <v>-6.8374825500232647E-2</v>
+      </c>
+      <c r="E12">
+        <v>-5.025593299208931E-2</v>
+      </c>
+      <c r="F12">
+        <v>-5.9213587715216363E-2</v>
+      </c>
+      <c r="G12">
+        <v>-5.2640763145648927E-3</v>
+      </c>
+      <c r="H12">
+        <v>-5.8501046998603902E-2</v>
+      </c>
+      <c r="I12">
+        <v>-6.6847952536063168E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.16289553280595609</v>
+      </c>
+      <c r="K12">
+        <v>-2.8777919962773339E-2</v>
+      </c>
+      <c r="L12">
+        <v>-2.745463006049317E-2</v>
+      </c>
+      <c r="M12">
+        <v>-6.8374825500232647E-2</v>
+      </c>
+      <c r="N12">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O12">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P12">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>0.3929824044327862</v>
+      </c>
+      <c r="C13">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D13">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="E13">
+        <v>-3.9243714816233809E-2</v>
+      </c>
+      <c r="F13">
+        <v>-6.5858115476436024E-2</v>
+      </c>
+      <c r="G13">
+        <v>-2.851542927878789E-2</v>
+      </c>
+      <c r="H13">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="I13">
+        <v>-6.4207610009136454E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.2443337557841376</v>
+      </c>
+      <c r="K13">
+        <v>-7.2651713873088343E-3</v>
+      </c>
+      <c r="L13">
+        <v>-6.0272922868342682E-3</v>
+      </c>
+      <c r="M13">
+        <v>-6.9055969819328489E-2</v>
+      </c>
+      <c r="N13">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O13">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>0.57651035986913879</v>
+      </c>
+      <c r="C14">
+        <v>-4.0487095601598883E-2</v>
+      </c>
+      <c r="D14">
+        <v>-7.0308978553252938E-2</v>
+      </c>
+      <c r="E14">
+        <v>-6.3489640130861086E-2</v>
+      </c>
+      <c r="F14">
+        <v>-5.9825517993456589E-2</v>
+      </c>
+      <c r="G14">
+        <v>-9.7491821155939844E-3</v>
+      </c>
+      <c r="H14">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="I14">
+        <v>-6.5932388222464264E-2</v>
+      </c>
+      <c r="J14">
+        <v>6.7604507451836118E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.007270083605989E-2</v>
+      </c>
+      <c r="L14">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="M14">
+        <v>-6.8680479825517601E-2</v>
+      </c>
+      <c r="N14">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="O14">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="P14">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.63884701508920338</v>
+      </c>
+      <c r="C15">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.091749967070119E-2</v>
+      </c>
+      <c r="E15">
+        <v>-6.6811070294319399E-3</v>
+      </c>
+      <c r="F15">
+        <v>-6.2515550221727945E-2</v>
+      </c>
+      <c r="G15">
+        <v>-3.1166303218346871E-2</v>
+      </c>
+      <c r="H15">
+        <v>-5.3602529014884187E-2</v>
+      </c>
+      <c r="I15">
+        <v>-3.1780994336060457E-2</v>
+      </c>
+      <c r="J15">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="K15">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="L15">
+        <v>-5.9442094633160983E-2</v>
+      </c>
+      <c r="M15">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="N15">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O15">
+        <v>-6.7433079163434495E-2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.29177094804284731</v>
+      </c>
+      <c r="C16">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D16">
+        <v>-6.0917008709580438E-2</v>
+      </c>
+      <c r="E16">
+        <v>-4.8002803083391589E-2</v>
+      </c>
+      <c r="F16">
+        <v>-5.961557713484824E-2</v>
+      </c>
+      <c r="G16">
+        <v>-1.406547201922102E-2</v>
+      </c>
+      <c r="H16">
+        <v>-5.2808088897787361E-2</v>
+      </c>
+      <c r="I16">
+        <v>-6.8825708279106876E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.40339373310641707</v>
+      </c>
+      <c r="K16">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="L16">
+        <v>-3.5689258184002363E-2</v>
+      </c>
+      <c r="M16">
+        <v>-6.9526479127039478E-2</v>
+      </c>
+      <c r="N16">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O16">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.79907142857142888</v>
+      </c>
+      <c r="C17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="D17">
+        <v>-1.9528571428571121E-2</v>
+      </c>
+      <c r="E17">
+        <v>-5.1328571428571168E-2</v>
+      </c>
+      <c r="F17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="G17">
+        <v>-3.0828571428571171E-2</v>
+      </c>
+      <c r="H17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="I17">
+        <v>-6.3628571428570938E-2</v>
+      </c>
+      <c r="J17">
+        <v>-6.8928571428570992E-2</v>
+      </c>
+      <c r="K17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="L17">
+        <v>-6.4828571428571041E-2</v>
+      </c>
+      <c r="M17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="N17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="O17">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0.55266123439667136</v>
+      </c>
+      <c r="C18">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D18">
+        <v>5.3672561257512581E-2</v>
+      </c>
+      <c r="E18">
+        <v>-1.206368469717993E-2</v>
+      </c>
+      <c r="F18">
+        <v>-6.0202843273231638E-2</v>
+      </c>
+      <c r="G18">
+        <v>-1.5805594082293092E-2</v>
+      </c>
+      <c r="H18">
+        <v>-4.9583911234396733E-2</v>
+      </c>
+      <c r="I18">
+        <v>-1.99520342117432E-2</v>
+      </c>
+      <c r="J18">
+        <v>-5.7168862690707388E-2</v>
+      </c>
+      <c r="K18">
+        <v>-4.2504623208506752E-2</v>
+      </c>
+      <c r="L18">
+        <v>-6.4349283402681465E-2</v>
+      </c>
+      <c r="M18">
+        <v>-7.0417244567730158E-2</v>
+      </c>
+      <c r="N18">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O18">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.61439279022039817</v>
+      </c>
+      <c r="C19">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.923767883168309E-2</v>
+      </c>
+      <c r="E19">
+        <v>2.6917700246875168E-3</v>
+      </c>
+      <c r="F19">
+        <v>-5.5188721334879502E-2</v>
+      </c>
+      <c r="G19">
+        <v>-4.3871389905116203E-3</v>
+      </c>
+      <c r="H19">
+        <v>-4.9983641176645069E-2</v>
+      </c>
+      <c r="I19">
+        <v>-4.8734421938668802E-2</v>
+      </c>
+      <c r="J19">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="K19">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="L19">
+        <v>-6.3204544778560634E-2</v>
+      </c>
+      <c r="M19">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="N19">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="O19">
+        <v>-6.7680913714642216E-2</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.56664002249951895</v>
+      </c>
+      <c r="C20">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.2031173675562777E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.729339668724155E-3</v>
+      </c>
+      <c r="F20">
+        <v>-5.3088503041875637E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.2835827523426294E-3</v>
+      </c>
+      <c r="H20">
+        <v>-4.4281125568038732E-2</v>
+      </c>
+      <c r="I20">
+        <v>-3.7546072205692831E-2</v>
+      </c>
+      <c r="J20">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="K20">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="L20">
+        <v>-6.168864810456353E-2</v>
+      </c>
+      <c r="M20">
+        <v>-7.0806874195123937E-2</v>
+      </c>
+      <c r="N20">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O20">
+        <v>-6.6558609766567411E-2</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0.61245739703079016</v>
+      </c>
+      <c r="C21">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.0760787938308872E-3</v>
+      </c>
+      <c r="E21">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="F21">
+        <v>-5.141239674195569E-2</v>
+      </c>
+      <c r="G21">
+        <v>4.1288775922823838E-2</v>
+      </c>
+      <c r="H21">
+        <v>-4.7267633296747442E-2</v>
+      </c>
+      <c r="I21">
+        <v>-4.6054531800588598E-2</v>
+      </c>
+      <c r="J21">
+        <v>-6.9406735601640276E-2</v>
+      </c>
+      <c r="K21">
+        <v>-5.7477904222748052E-2</v>
+      </c>
+      <c r="L21">
+        <v>-2.917220264571602E-2</v>
+      </c>
+      <c r="M21">
+        <v>-7.0316561723759066E-2</v>
+      </c>
+      <c r="N21">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="O21">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0.53369081343585578</v>
+      </c>
+      <c r="C22">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D22">
+        <v>6.2727640631323762E-3</v>
+      </c>
+      <c r="E22">
+        <v>-1.6693646297045801E-2</v>
+      </c>
+      <c r="F22">
+        <v>-5.3925536220153877E-2</v>
+      </c>
+      <c r="G22">
+        <v>3.0250910562525019E-2</v>
+      </c>
+      <c r="H22">
+        <v>-1.031970861999216E-2</v>
+      </c>
+      <c r="I22">
+        <v>-4.9372723593686753E-2</v>
+      </c>
+      <c r="J22">
+        <v>-6.7887494941319404E-2</v>
+      </c>
+      <c r="K22">
+        <v>-6.1614730878187203E-2</v>
+      </c>
+      <c r="L22">
+        <v>-2.5900445163901501E-2</v>
+      </c>
+      <c r="M22">
+        <v>-7.0214488061513716E-2</v>
+      </c>
+      <c r="N22">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O22">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.85765869035678466</v>
+      </c>
+      <c r="C23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E23">
+        <v>-6.069637483880197E-2</v>
+      </c>
+      <c r="F23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="G23">
+        <v>-5.1568992692362772E-2</v>
+      </c>
+      <c r="H23">
+        <v>-6.9723456082533303E-2</v>
+      </c>
+      <c r="I23">
+        <v>-3.8931078951139113E-2</v>
+      </c>
+      <c r="J23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="K23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="L23">
+        <v>-6.5310216363375834E-2</v>
+      </c>
+      <c r="M23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="N23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O23">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0.13033460228411151</v>
+      </c>
+      <c r="C24">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D24">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="E24">
+        <v>-5.6601883390102352E-2</v>
+      </c>
+      <c r="F24">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="G24">
+        <v>-5.800440793428159E-2</v>
+      </c>
+      <c r="H24">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I24">
+        <v>3.2859146463634428E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.21588859947906219</v>
+      </c>
+      <c r="K24">
+        <v>0.24143458224804629</v>
+      </c>
+      <c r="L24">
+        <v>-3.5463834902825293E-2</v>
+      </c>
+      <c r="M24">
+        <v>-6.7721899418954234E-2</v>
+      </c>
+      <c r="N24">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O24">
+        <v>-4.5582047685834542E-2</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.88096192671716378</v>
+      </c>
+      <c r="C25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D25">
+        <v>-6.551497014562066E-2</v>
+      </c>
+      <c r="E25">
+        <v>-6.5214278554962271E-2</v>
+      </c>
+      <c r="F25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="G25">
+        <v>-5.8198141439597131E-2</v>
+      </c>
+      <c r="H25">
+        <v>-6.8221194461547272E-2</v>
+      </c>
+      <c r="I25">
+        <v>-5.589283924454827E-2</v>
+      </c>
+      <c r="J25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="K25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="L25">
+        <v>-6.7920502870888855E-2</v>
+      </c>
+      <c r="M25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="N25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O25">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0.89811355861851783</v>
+      </c>
+      <c r="C26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D26">
+        <v>-6.2211058153348583E-2</v>
+      </c>
+      <c r="E26">
+        <v>-6.9324573833140266E-2</v>
+      </c>
+      <c r="F26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G26">
+        <v>-6.3313152131907788E-2</v>
+      </c>
+      <c r="H26">
+        <v>-6.8823622024704087E-2</v>
+      </c>
+      <c r="I26">
+        <v>-6.3012581046846261E-2</v>
+      </c>
+      <c r="J26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="K26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="L26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O26">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0.28070477588246773</v>
+      </c>
+      <c r="C27">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D27">
+        <v>-6.9227082802929038E-2</v>
+      </c>
+      <c r="E27">
+        <v>-3.4632261542838917E-2</v>
+      </c>
+      <c r="F27">
+        <v>-6.398544321806697E-2</v>
+      </c>
+      <c r="G27">
+        <v>-4.3228550462012898E-2</v>
+      </c>
+      <c r="H27">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="I27">
+        <v>-1.9746005121830539E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.19474188669072831</v>
+      </c>
+      <c r="K27">
+        <v>8.1732137241100677E-2</v>
+      </c>
+      <c r="L27">
+        <v>2.6904587183442671E-2</v>
+      </c>
+      <c r="M27">
+        <v>-6.7549758135773241E-2</v>
+      </c>
+      <c r="N27">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O27">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0.87554340808333009</v>
+      </c>
+      <c r="C28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="D28">
+        <v>-6.1284953873082582E-2</v>
+      </c>
+      <c r="E28">
+        <v>-6.4197477725648655E-2</v>
+      </c>
+      <c r="F28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="G28">
+        <v>-5.6765520308755993E-2</v>
+      </c>
+      <c r="H28">
+        <v>-6.8516047576005309E-2</v>
+      </c>
+      <c r="I28">
+        <v>-5.4857315026040368E-2</v>
+      </c>
+      <c r="J28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="K28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="L28">
+        <v>-6.9922093573795779E-2</v>
+      </c>
+      <c r="M28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="N28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="O28">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0.52985530874261233</v>
+      </c>
+      <c r="C29">
+        <v>-4.2286529447727962E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.6246178928061788E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.7220297534134489E-2</v>
+      </c>
+      <c r="F29">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G29">
+        <v>-8.6610963929081332E-3</v>
+      </c>
+      <c r="H29">
+        <v>-4.2082738944365462E-2</v>
+      </c>
+      <c r="I29">
+        <v>-2.3232117383330021E-2</v>
+      </c>
+      <c r="J29">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="K29">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="L29">
+        <v>-5.8487874465050042E-2</v>
+      </c>
+      <c r="M29">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N29">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O29">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P29">
+        <v>13</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>0.55958152958152962</v>
+      </c>
+      <c r="C30">
+        <v>-3.7287157287157292E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.2611832611832533E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.1702741702741701E-2</v>
+      </c>
+      <c r="F30">
+        <v>-6.4761904761904937E-2</v>
+      </c>
+      <c r="G30">
+        <v>2.1803751803751929E-2</v>
+      </c>
+      <c r="H30">
+        <v>-6.6378066378066369E-2</v>
+      </c>
+      <c r="I30">
+        <v>-6.6681096681096785E-2</v>
+      </c>
+      <c r="J30">
+        <v>-5.5064935064935178E-2</v>
+      </c>
+      <c r="K30">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="L30">
+        <v>-6.9812409812409867E-2</v>
+      </c>
+      <c r="M30">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="N30">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O30">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>71</v>
+      </c>
+      <c r="R30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>0.59090249248769677</v>
+      </c>
+      <c r="C31">
+        <v>-5.008927664145707E-2</v>
+      </c>
+      <c r="D31">
+        <v>7.6117409670909617E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.260760375687687E-2</v>
+      </c>
+      <c r="F31">
+        <v>-6.6144555576524419E-2</v>
+      </c>
+      <c r="G31">
+        <v>-8.6300753407759744E-3</v>
+      </c>
+      <c r="H31">
+        <v>-6.7160712471149006E-2</v>
+      </c>
+      <c r="I31">
+        <v>-6.0555692656089698E-2</v>
+      </c>
+      <c r="J31">
+        <v>-7.0310798844485073E-2</v>
+      </c>
+      <c r="K31">
+        <v>-7.1428571428572063E-2</v>
+      </c>
+      <c r="L31">
+        <v>-7.1428571428572063E-2</v>
+      </c>
+      <c r="M31">
+        <v>-7.1022108670722089E-2</v>
+      </c>
+      <c r="N31">
+        <v>-7.1428571428572063E-2</v>
+      </c>
+      <c r="O31">
+        <v>-7.1428571428572063E-2</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0.74564083731178843</v>
+      </c>
+      <c r="C32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.5435181784796351E-2</v>
+      </c>
+      <c r="E32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="F32">
+        <v>-5.5695923613661193E-2</v>
+      </c>
+      <c r="G32">
+        <v>-4.0066103562247317E-2</v>
+      </c>
+      <c r="H32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="I32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="J32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="K32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="L32">
+        <v>-5.7443995593095737E-2</v>
+      </c>
+      <c r="M32">
+        <v>-7.0708777084098395E-2</v>
+      </c>
+      <c r="N32">
+        <v>-4.7161219243481337E-2</v>
+      </c>
+      <c r="O32">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="P32">
+        <v>18</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0.2286929352542959</v>
+      </c>
+      <c r="C33">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="D33">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="E33">
+        <v>-4.1760689695076347E-2</v>
+      </c>
+      <c r="F33">
+        <v>-6.5454492854250021E-2</v>
+      </c>
+      <c r="G33">
+        <v>-3.5280333275473232E-2</v>
+      </c>
+      <c r="H33">
+        <v>-5.796158074408405E-2</v>
+      </c>
+      <c r="I33">
+        <v>-3.5887866689811067E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.3621477752704968</v>
+      </c>
+      <c r="K33">
+        <v>-1.7256841983452179E-2</v>
+      </c>
+      <c r="L33">
+        <v>1.7980096048139591E-2</v>
+      </c>
+      <c r="M33">
+        <v>-6.9504715616502025E-2</v>
+      </c>
+      <c r="N33">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="O33">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="P33">
+        <v>19</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>0.35114806017418809</v>
+      </c>
+      <c r="C34">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="D34">
+        <v>-6.3397805678090988E-2</v>
+      </c>
+      <c r="E34">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="F34">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="G34">
+        <v>-9.7839610903744673E-3</v>
+      </c>
+      <c r="H34">
+        <v>-5.4349055536704209E-2</v>
+      </c>
+      <c r="I34">
+        <v>-1.736228933378604E-2</v>
+      </c>
+      <c r="J34">
+        <v>3.3763148965048978E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.19494401085849999</v>
+      </c>
+      <c r="L34">
+        <v>-6.3906797873545156E-3</v>
+      </c>
+      <c r="M34">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="N34">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="O34">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0.70689055159213565</v>
+      </c>
+      <c r="C35">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="D35">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="E35">
+        <v>-2.3621019662432251E-2</v>
+      </c>
+      <c r="F35">
+        <v>-5.904529899657749E-2</v>
+      </c>
+      <c r="G35">
+        <v>-8.5986891711613122E-3</v>
+      </c>
+      <c r="H35">
+        <v>-4.7372542195927722E-2</v>
+      </c>
+      <c r="I35">
+        <v>-3.8135838988457439E-2</v>
+      </c>
+      <c r="J35">
+        <v>-6.1278348123658337E-2</v>
+      </c>
+      <c r="K35">
+        <v>-5.1432631517892922E-2</v>
+      </c>
+      <c r="L35">
+        <v>-6.0263325793167087E-2</v>
+      </c>
+      <c r="M35">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="N35">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="O35">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="P35">
+        <v>21</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>0.85207142857142859</v>
+      </c>
+      <c r="C36">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D36">
+        <v>-6.4028571428571462E-2</v>
+      </c>
+      <c r="E36">
+        <v>-5.4828571428571553E-2</v>
+      </c>
+      <c r="F36">
+        <v>-6.5028571428571436E-2</v>
+      </c>
+      <c r="G36">
+        <v>-3.6428571428571338E-2</v>
+      </c>
+      <c r="H36">
+        <v>-6.7928571428571435E-2</v>
+      </c>
+      <c r="I36">
+        <v>-6.5928571428571461E-2</v>
+      </c>
+      <c r="J36">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="K36">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="L36">
+        <v>-6.932857142857124E-2</v>
+      </c>
+      <c r="M36">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="N36">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O36">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P36">
+        <v>22</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>0.25158922792417909</v>
+      </c>
+      <c r="C37">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D37">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E37">
+        <v>-6.6675335182617021E-2</v>
+      </c>
+      <c r="F37">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G37">
+        <v>-5.5348474341193089E-2</v>
+      </c>
+      <c r="H37">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="I37">
+        <v>1.412968099861284E-2</v>
+      </c>
+      <c r="J37">
+        <v>0.2232720758206195</v>
+      </c>
+      <c r="K37">
+        <v>0.19384246417013401</v>
+      </c>
+      <c r="L37">
+        <v>-7.0012713823393621E-2</v>
+      </c>
+      <c r="M37">
+        <v>-6.2225496994914753E-2</v>
+      </c>
+      <c r="N37">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O37">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P37">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0.1268282909236626</v>
+      </c>
+      <c r="C38">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D38">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E38">
+        <v>-5.7002604688439269E-2</v>
+      </c>
+      <c r="F38">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="G38">
+        <v>-6.4415948707673906E-2</v>
+      </c>
+      <c r="H38">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.4462031656982542E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.2244039270687237</v>
+      </c>
+      <c r="K38">
+        <v>0.2516529753556403</v>
+      </c>
+      <c r="L38">
+        <v>-4.0072129833700662E-2</v>
+      </c>
+      <c r="M38">
+        <v>-6.6920456822280219E-2</v>
+      </c>
+      <c r="N38">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O38">
+        <v>-5.179322781005806E-2</v>
+      </c>
+      <c r="P38">
+        <v>26</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>72</v>
+      </c>
+      <c r="R38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>0.86693799066028565</v>
+      </c>
+      <c r="C39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E39">
+        <v>-6.1915364263304823E-2</v>
+      </c>
+      <c r="F39">
+        <v>-6.5963537525120561E-2</v>
+      </c>
+      <c r="G39">
+        <v>-4.6026284210678788E-2</v>
+      </c>
+      <c r="H39">
+        <v>-6.9404484797663882E-2</v>
+      </c>
+      <c r="I39">
+        <v>-5.5843104370581577E-2</v>
+      </c>
+      <c r="J39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="K39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="L39">
+        <v>-6.77852154929377E-2</v>
+      </c>
+      <c r="M39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O39">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P39">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>0.27915846277255152</v>
+      </c>
+      <c r="C40">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D40">
+        <v>-5.7033471887989587E-2</v>
+      </c>
+      <c r="E40">
+        <v>-2.5588857288704438E-2</v>
+      </c>
+      <c r="F40">
+        <v>-6.1423466783344358E-2</v>
+      </c>
+      <c r="G40">
+        <v>-2.7018157952308129E-2</v>
+      </c>
+      <c r="H40">
+        <v>-4.9784875665427039E-2</v>
+      </c>
+      <c r="I40">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.32897980018960099</v>
+      </c>
+      <c r="K40">
+        <v>3.362502734631366E-2</v>
+      </c>
+      <c r="L40">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M40">
+        <v>-6.7855319769561717E-2</v>
+      </c>
+      <c r="N40">
+        <v>-6.7344855246846025E-2</v>
+      </c>
+      <c r="O40">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P40">
+        <v>30</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>0.30273556231003018</v>
+      </c>
+      <c r="C41">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D41">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="E41">
+        <v>-2.847011144883501E-2</v>
+      </c>
+      <c r="F41">
+        <v>-6.6261398176291814E-2</v>
+      </c>
+      <c r="G41">
+        <v>-3.2320162107396411E-2</v>
+      </c>
+      <c r="H41">
+        <v>-4.366767983789268E-2</v>
+      </c>
+      <c r="I41">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.31094224924012148</v>
+      </c>
+      <c r="K41">
+        <v>3.343465045592689E-2</v>
+      </c>
+      <c r="L41">
+        <v>-5.7142857142857183E-2</v>
+      </c>
+      <c r="M41">
+        <v>-6.6565349544073102E-2</v>
+      </c>
+      <c r="N41">
+        <v>-6.6970618034447968E-2</v>
+      </c>
+      <c r="O41">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>72</v>
+      </c>
+      <c r="R41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>0.5981843514607913</v>
+      </c>
+      <c r="C42">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D42">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="E42">
+        <v>-5.5173364682660597E-2</v>
+      </c>
+      <c r="F42">
+        <v>-6.2386612676158547E-2</v>
+      </c>
+      <c r="G42">
+        <v>-3.9832513316207567E-2</v>
+      </c>
+      <c r="H42">
+        <v>-2.4796447076239889E-2</v>
+      </c>
+      <c r="I42">
+        <v>-6.6958389573445992E-2</v>
+      </c>
+      <c r="J42">
+        <v>9.6711223349443293E-2</v>
+      </c>
+      <c r="K42">
+        <v>-3.6683067009187248E-2</v>
+      </c>
+      <c r="L42">
+        <v>-5.4970174598336821E-2</v>
+      </c>
+      <c r="M42">
+        <v>-6.8380720163713229E-2</v>
+      </c>
+      <c r="N42">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O42">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P42">
+        <v>31</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>0.6351394399235466</v>
+      </c>
+      <c r="C43">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="D43">
+        <v>-6.9300049231125996E-2</v>
+      </c>
+      <c r="E43">
+        <v>-6.6766094234166781E-2</v>
+      </c>
+      <c r="F43">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="G43">
+        <v>-4.7508036257276398E-2</v>
+      </c>
+      <c r="H43">
+        <v>-6.1292751440734761E-2</v>
+      </c>
+      <c r="I43">
+        <v>-7.0313631229909621E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.12885523153108769</v>
+      </c>
+      <c r="K43">
+        <v>-2.1965769887927141E-2</v>
+      </c>
+      <c r="L43">
+        <v>-6.9705482030639504E-2</v>
+      </c>
+      <c r="M43">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="N43">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="O43">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="P43">
+        <v>32</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>72</v>
+      </c>
+      <c r="R43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>0.6839735894357748</v>
+      </c>
+      <c r="C44">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="D44">
+        <v>-6.9927971188474783E-2</v>
+      </c>
+      <c r="E44">
+        <v>-6.5026010404161227E-2</v>
+      </c>
+      <c r="F44">
+        <v>-6.1424569827930757E-2</v>
+      </c>
+      <c r="G44">
+        <v>-4.7919167667066519E-2</v>
+      </c>
+      <c r="H44">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="I44">
+        <v>-6.6726690676269892E-2</v>
+      </c>
+      <c r="J44">
+        <v>9.0236094437775471E-2</v>
+      </c>
+      <c r="K44">
+        <v>-3.5914365746298013E-2</v>
+      </c>
+      <c r="L44">
+        <v>-7.0128051220487819E-2</v>
+      </c>
+      <c r="M44">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="N44">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="O44">
+        <v>-7.1428571428570981E-2</v>
+      </c>
+      <c r="P44">
+        <v>33</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>72</v>
+      </c>
+      <c r="R44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>0.29547052619242958</v>
+      </c>
+      <c r="C45">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D45">
+        <v>-6.8864994726356155E-2</v>
+      </c>
+      <c r="E45">
+        <v>-6.3430212117660548E-2</v>
+      </c>
+      <c r="F45">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="G45">
+        <v>-5.4816594398218357E-2</v>
+      </c>
+      <c r="H45">
+        <v>-6.6609047228407006E-2</v>
+      </c>
+      <c r="I45">
+        <v>-5.5944568147193091E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.40590941052384882</v>
+      </c>
+      <c r="K45">
+        <v>3.1114496660026081E-2</v>
+      </c>
+      <c r="L45">
+        <v>-6.7942107113559011E-2</v>
+      </c>
+      <c r="M45">
+        <v>-6.9172623930622068E-2</v>
+      </c>
+      <c r="N45">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O45">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="P45">
+        <v>34</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>72</v>
+      </c>
+      <c r="R45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>0.61363535124059032</v>
+      </c>
+      <c r="C46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="D46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="E46">
+        <v>-6.7478878049504198E-2</v>
+      </c>
+      <c r="F46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="G46">
+        <v>-5.6461312307897638E-2</v>
+      </c>
+      <c r="H46">
+        <v>-6.9661603337936071E-2</v>
+      </c>
+      <c r="I46">
+        <v>-6.9765542637385047E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.15775758385674241</v>
+      </c>
+      <c r="K46">
+        <v>-1.2391049341469959E-2</v>
+      </c>
+      <c r="L46">
+        <v>-6.7063120851707916E-2</v>
+      </c>
+      <c r="M46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="N46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="O46">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="P46">
+        <v>35</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>72</v>
+      </c>
+      <c r="R46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0.33387717475600281</v>
+      </c>
+      <c r="C47">
+        <v>-4.8689659208967173E-2</v>
+      </c>
+      <c r="D47">
+        <v>-6.9994585973281245E-2</v>
+      </c>
+      <c r="E47">
+        <v>-6.763875272530423E-2</v>
+      </c>
+      <c r="F47">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="G47">
+        <v>-5.5040166225252908E-2</v>
+      </c>
+      <c r="H47">
+        <v>-6.8150890387907975E-2</v>
+      </c>
+      <c r="I47">
+        <v>-6.4463499217161269E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.35477239139023409</v>
+      </c>
+      <c r="K47">
+        <v>3.9500446291391558E-2</v>
+      </c>
+      <c r="L47">
+        <v>-7.071157870092637E-2</v>
+      </c>
+      <c r="M47">
+        <v>-6.917516571311523E-2</v>
+      </c>
+      <c r="N47">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="O47">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="P47">
+        <v>36</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>72</v>
+      </c>
+      <c r="R47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>0.52989169262423852</v>
+      </c>
+      <c r="C48">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="D48">
+        <v>-6.9128111336553472E-2</v>
+      </c>
+      <c r="E48">
+        <v>-6.2526791072500532E-2</v>
+      </c>
+      <c r="F48">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="G48">
+        <v>-4.4223130340354279E-2</v>
+      </c>
+      <c r="H48">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="I48">
+        <v>-4.1322550224331123E-2</v>
+      </c>
+      <c r="J48">
+        <v>0.10100591546880749</v>
+      </c>
+      <c r="K48">
+        <v>3.1992112708255277E-2</v>
+      </c>
+      <c r="L48">
+        <v>-5.6825650844455018E-2</v>
+      </c>
+      <c r="M48">
+        <v>-6.8327951304547038E-2</v>
+      </c>
+      <c r="N48">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="O48">
+        <v>-3.4821249964279093E-2</v>
+      </c>
+      <c r="P48">
+        <v>37</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>72</v>
+      </c>
+      <c r="R48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>0.26264873403962402</v>
+      </c>
+      <c r="C49">
+        <v>-5.7428368527079922E-2</v>
+      </c>
+      <c r="D49">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E49">
+        <v>-6.4529920723488496E-2</v>
+      </c>
+      <c r="F49">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="G49">
+        <v>-4.5355729793185133E-2</v>
+      </c>
+      <c r="H49">
+        <v>-6.8486499804345E-2</v>
+      </c>
+      <c r="I49">
+        <v>-6.4022666995173644E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.4288250554355863</v>
+      </c>
+      <c r="K49">
+        <v>2.7891708575486941E-2</v>
+      </c>
+      <c r="L49">
+        <v>-6.6558935636748043E-2</v>
+      </c>
+      <c r="M49">
+        <v>-6.7269090856389144E-2</v>
+      </c>
+      <c r="N49">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O49">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="P49">
+        <v>38</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>0.19436729734421071</v>
+      </c>
+      <c r="C50">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="D50">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="E50">
+        <v>-6.0189203263322742E-2</v>
+      </c>
+      <c r="F50">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="G50">
+        <v>-6.6365792975756829E-2</v>
+      </c>
+      <c r="H50">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="I50">
+        <v>-6.2518081351617669E-2</v>
+      </c>
+      <c r="J50">
+        <v>0.54653416652201559</v>
+      </c>
+      <c r="K50">
+        <v>1.677949430075452E-3</v>
+      </c>
+      <c r="L50">
+        <v>-5.9682925418041273E-2</v>
+      </c>
+      <c r="M50">
+        <v>-6.5251981716137678E-2</v>
+      </c>
+      <c r="N50">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="O50">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="P50">
+        <v>39</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>9.8095624574269666E-2</v>
+      </c>
+      <c r="C51">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D51">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="E51">
+        <v>-5.2457281989593721E-2</v>
+      </c>
+      <c r="F51">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="G51">
+        <v>-6.686328787373691E-2</v>
+      </c>
+      <c r="H51">
+        <v>-6.9501007260974343E-2</v>
+      </c>
+      <c r="I51">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.64085711387121602</v>
+      </c>
+      <c r="K51">
+        <v>-3.5580225800369071E-3</v>
+      </c>
+      <c r="L51">
+        <v>-5.3471789446223307E-2</v>
+      </c>
+      <c r="M51">
+        <v>-6.4529920723488371E-2</v>
+      </c>
+      <c r="N51">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O51">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="P51">
+        <v>40</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>0.12556214461027251</v>
+      </c>
+      <c r="C52">
+        <v>-7.1428571428570745E-2</v>
+      </c>
+      <c r="D52">
+        <v>-6.6733234751588655E-2</v>
+      </c>
+      <c r="E52">
+        <v>-1.8499321615317161E-2</v>
+      </c>
+      <c r="F52">
+        <v>-4.2296141591840378E-2</v>
+      </c>
+      <c r="G52">
+        <v>-3.5893409759592057E-2</v>
+      </c>
+      <c r="H52">
+        <v>-5.2327088129029559E-2</v>
+      </c>
+      <c r="I52">
+        <v>-6.9401039681692131E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.39938564263609688</v>
+      </c>
+      <c r="K52">
+        <v>3.2722533042670282E-2</v>
+      </c>
+      <c r="L52">
+        <v>8.1787276857179826E-3</v>
+      </c>
+      <c r="M52">
+        <v>-6.6413098159976092E-2</v>
+      </c>
+      <c r="N52">
+        <v>-7.1428571428570745E-2</v>
+      </c>
+      <c r="O52">
+        <v>-7.1428571428570745E-2</v>
+      </c>
+      <c r="P52">
+        <v>41</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>5.9644516868851562E-2</v>
+      </c>
+      <c r="C53">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D53">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E53">
+        <v>-1.608425372683954E-2</v>
+      </c>
+      <c r="F53">
+        <v>-6.2028486933430022E-2</v>
+      </c>
+      <c r="G53">
+        <v>-4.7664312873438357E-2</v>
+      </c>
+      <c r="H53">
+        <v>-6.3401532983282188E-2</v>
+      </c>
+      <c r="I53">
+        <v>-1.4922445530810629E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.56070070613796841</v>
+      </c>
+      <c r="K53">
+        <v>5.5676262900597306E-3</v>
+      </c>
+      <c r="L53">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M53">
+        <v>-6.4668960106222612E-2</v>
+      </c>
+      <c r="N53">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O53">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P53">
+        <v>43</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>72</v>
+      </c>
+      <c r="R53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>0.15304644667425241</v>
+      </c>
+      <c r="C54">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D54">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E54">
+        <v>-5.2239577945589234E-3</v>
+      </c>
+      <c r="F54">
+        <v>-6.1601324092272799E-2</v>
+      </c>
+      <c r="G54">
+        <v>-3.6153925726699281E-2</v>
+      </c>
+      <c r="H54">
+        <v>-5.7049756904934523E-2</v>
+      </c>
+      <c r="I54">
+        <v>-5.580842039929676E-2</v>
+      </c>
+      <c r="J54">
+        <v>0.39148650046550099</v>
+      </c>
+      <c r="K54">
+        <v>-3.7705596358746318E-2</v>
+      </c>
+      <c r="L54">
+        <v>6.1290989965863081E-2</v>
+      </c>
+      <c r="M54">
+        <v>-6.656667011482377E-2</v>
+      </c>
+      <c r="N54">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O54">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P54">
+        <v>43</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>72</v>
+      </c>
+      <c r="R54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>0.55171562218542092</v>
+      </c>
+      <c r="C55">
+        <v>-4.4379557802376707E-2</v>
+      </c>
+      <c r="D55">
+        <v>-7.0310003195909229E-2</v>
+      </c>
+      <c r="E55">
+        <v>-6.2886777651878265E-2</v>
+      </c>
+      <c r="F55">
+        <v>-6.3903657863389363E-2</v>
+      </c>
+      <c r="G55">
+        <v>-2.058456085301727E-2</v>
+      </c>
+      <c r="H55">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I55">
+        <v>-6.6039106307562601E-2</v>
+      </c>
+      <c r="J55">
+        <v>9.1170574392050924E-2</v>
+      </c>
+      <c r="K55">
+        <v>4.0021499753043289E-2</v>
+      </c>
+      <c r="L55">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="M55">
+        <v>-6.9089746942095909E-2</v>
+      </c>
+      <c r="N55">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O55">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P55">
+        <v>45</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>0.48834026158369631</v>
+      </c>
+      <c r="C56">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="D56">
+        <v>-6.8893845685897376E-2</v>
+      </c>
+      <c r="E56">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="F56">
+        <v>-5.4496603467505053E-2</v>
+      </c>
+      <c r="G56">
+        <v>-2.286322619892547E-2</v>
+      </c>
+      <c r="H56">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="I56">
+        <v>-6.3621616141133971E-2</v>
+      </c>
+      <c r="J56">
+        <v>0.18457872858156721</v>
+      </c>
+      <c r="K56">
+        <v>3.056879245665579E-2</v>
+      </c>
+      <c r="L56">
+        <v>-6.9400790834432194E-2</v>
+      </c>
+      <c r="M56">
+        <v>-6.7068843151171356E-2</v>
+      </c>
+      <c r="N56">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="O56">
+        <v>-7.1428571428571813E-2</v>
+      </c>
+      <c r="P56">
+        <v>46</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>72</v>
+      </c>
+      <c r="R56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>0.45849123116242252</v>
+      </c>
+      <c r="C57">
+        <v>-2.3515760406567731E-2</v>
+      </c>
+      <c r="D57">
+        <v>-6.84468728885749E-2</v>
+      </c>
+      <c r="E57">
+        <v>-6.2483475808582961E-2</v>
+      </c>
+      <c r="F57">
+        <v>-6.5156722775475726E-2</v>
+      </c>
+      <c r="G57">
+        <v>-3.9966510972062337E-2</v>
+      </c>
+      <c r="H57">
+        <v>-7.1428571428570509E-2</v>
+      </c>
+      <c r="I57">
+        <v>-6.4745454011338396E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.18972709379865549</v>
+      </c>
+      <c r="K57">
+        <v>2.347169589612624E-2</v>
+      </c>
+      <c r="L57">
+        <v>-7.0400399518227089E-2</v>
+      </c>
+      <c r="M57">
+        <v>-6.268911019065164E-2</v>
+      </c>
+      <c r="N57">
+        <v>-7.1428571428570509E-2</v>
+      </c>
+      <c r="O57">
+        <v>-7.1428571428570509E-2</v>
+      </c>
+      <c r="P57">
+        <v>47</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>72</v>
+      </c>
+      <c r="R57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>0.46633486509457017</v>
+      </c>
+      <c r="C58">
+        <v>-6.336161569599158E-2</v>
+      </c>
+      <c r="D58">
+        <v>-6.8201789135539648E-2</v>
+      </c>
+      <c r="E58">
+        <v>-4.2992552471225888E-2</v>
+      </c>
+      <c r="F58">
+        <v>-5.5899681643354453E-2</v>
+      </c>
+      <c r="G58">
+        <v>6.62138607585816E-2</v>
+      </c>
+      <c r="H58">
+        <v>-6.1042365922874438E-2</v>
+      </c>
+      <c r="I58">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="J58">
+        <v>8.6986271769975962E-2</v>
+      </c>
+      <c r="K58">
+        <v>2.283236577881678E-3</v>
+      </c>
+      <c r="L58">
+        <v>-6.0336507296273843E-2</v>
+      </c>
+      <c r="M58">
+        <v>-6.890764776214045E-2</v>
+      </c>
+      <c r="N58">
+        <v>-5.8218931416471463E-2</v>
+      </c>
+      <c r="O58">
+        <v>-7.1428571428571938E-2</v>
+      </c>
+      <c r="P58">
+        <v>48</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>72</v>
+      </c>
+      <c r="R58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>0.23003739715781599</v>
+      </c>
+      <c r="C59">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="D59">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="E59">
+        <v>-2.3470456245325479E-2</v>
+      </c>
+      <c r="F59">
+        <v>-5.6035901271503409E-2</v>
+      </c>
+      <c r="G59">
+        <v>-1.509349289453994E-2</v>
+      </c>
+      <c r="H59">
+        <v>-4.273747195213147E-2</v>
+      </c>
+      <c r="I59">
+        <v>-6.4098728496634172E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.28647718773373232</v>
+      </c>
+      <c r="K59">
+        <v>-7.5542258788332192E-3</v>
+      </c>
+      <c r="L59">
+        <v>4.4801795063575338E-2</v>
+      </c>
+      <c r="M59">
+        <v>-6.6611817501869869E-2</v>
+      </c>
+      <c r="N59">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="O59">
+        <v>-7.1428571428571216E-2</v>
+      </c>
+      <c r="P59">
+        <v>49</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>72</v>
+      </c>
+      <c r="R59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>0.12797255976805719</v>
+      </c>
+      <c r="C60">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="D60">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="E60">
+        <v>-3.6050951377556671E-2</v>
+      </c>
+      <c r="F60">
+        <v>-6.6216194806634973E-2</v>
+      </c>
+      <c r="G60">
+        <v>-5.0689966571079742E-2</v>
+      </c>
+      <c r="H60">
+        <v>-6.7768817630190478E-2</v>
+      </c>
+      <c r="I60">
+        <v>-5.8896687209873219E-2</v>
+      </c>
+      <c r="J60">
+        <v>0.41653860168887352</v>
+      </c>
+      <c r="K60">
+        <v>8.6051743532058675E-2</v>
+      </c>
+      <c r="L60">
+        <v>-1.116937847557688E-3</v>
+      </c>
+      <c r="M60">
+        <v>-6.4109063831809435E-2</v>
+      </c>
+      <c r="N60">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="O60">
+        <v>-7.1428571428571105E-2</v>
+      </c>
+      <c r="P60">
+        <v>50</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>72</v>
+      </c>
+      <c r="R60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>0.18672730814763769</v>
+      </c>
+      <c r="C61">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="D61">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E61">
+        <v>-3.3874810807570467E-2</v>
+      </c>
+      <c r="F61">
+        <v>-5.8945617479132517E-2</v>
+      </c>
+      <c r="G61">
+        <v>-1.6356715769282461E-2</v>
+      </c>
+      <c r="H61">
+        <v>-5.8945617479132517E-2</v>
+      </c>
+      <c r="I61">
+        <v>-5.705743957081387E-2</v>
+      </c>
+      <c r="J61">
+        <v>0.3506840898532918</v>
+      </c>
+      <c r="K61">
+        <v>2.2350931351246221E-2</v>
+      </c>
+      <c r="L61">
+        <v>1.353943444576013E-2</v>
+      </c>
+      <c r="M61">
+        <v>-6.7337519293881223E-2</v>
+      </c>
+      <c r="N61">
+        <v>-6.6498329112406399E-2</v>
+      </c>
+      <c r="O61">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="P61">
+        <v>51</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>72</v>
+      </c>
+      <c r="R61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>0.1613958560523451</v>
+      </c>
+      <c r="C62">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="D62">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="E62">
+        <v>-1.5485278080697461E-2</v>
+      </c>
+      <c r="F62">
+        <v>-5.5616139585604678E-2</v>
+      </c>
+      <c r="G62">
+        <v>-4.4056706652125972E-2</v>
+      </c>
+      <c r="H62">
+        <v>-6.6848418756815256E-2</v>
+      </c>
+      <c r="I62">
+        <v>-6.3249727371864198E-2</v>
+      </c>
+      <c r="J62">
+        <v>0.48844056706652178</v>
+      </c>
+      <c r="K62">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="L62">
+        <v>2.3991275899673301E-2</v>
+      </c>
+      <c r="M62">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="N62">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="O62">
+        <v>-7.1428571428570869E-2</v>
+      </c>
+      <c r="P62">
+        <v>51</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>72</v>
+      </c>
+      <c r="R62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>0.2021683673469386</v>
+      </c>
+      <c r="C63">
+        <v>-5.8460884353741541E-2</v>
+      </c>
+      <c r="D63">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="E63">
+        <v>-4.7300170068027163E-2</v>
+      </c>
+      <c r="F63">
+        <v>-6.5582482993197314E-2</v>
+      </c>
+      <c r="G63">
+        <v>-5.9098639455782268E-2</v>
+      </c>
+      <c r="H63">
+        <v>-6.898384353741506E-2</v>
+      </c>
+      <c r="I63">
+        <v>-6.3988095238095358E-2</v>
+      </c>
+      <c r="J63">
+        <v>0.43261054421768708</v>
+      </c>
+      <c r="K63">
+        <v>2.0408163265306051E-2</v>
+      </c>
+      <c r="L63">
+        <v>-1.0735544217686979E-2</v>
+      </c>
+      <c r="M63">
+        <v>-6.67517006802721E-2</v>
+      </c>
+      <c r="N63">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="O63">
+        <v>-7.1428571428571341E-2</v>
+      </c>
+      <c r="P63">
+        <v>52</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>72</v>
+      </c>
+      <c r="R63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
+        <v>0.1521091028967019</v>
+      </c>
+      <c r="C64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="D64">
+        <v>-6.8217976465192467E-2</v>
+      </c>
+      <c r="E64">
+        <v>-3.9422952887385593E-2</v>
+      </c>
+      <c r="F64">
+        <v>-5.8586191575054819E-2</v>
+      </c>
+      <c r="G64">
+        <v>-2.9791167997247951E-2</v>
+      </c>
+      <c r="H64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="I64">
+        <v>-6.310109074230677E-2</v>
+      </c>
+      <c r="J64">
+        <v>0.48500766816207758</v>
+      </c>
+      <c r="K64">
+        <v>-7.954822342301866E-4</v>
+      </c>
+      <c r="L64">
+        <v>-2.8888188163797901E-2</v>
+      </c>
+      <c r="M64">
+        <v>-6.2599435279278762E-2</v>
+      </c>
+      <c r="N64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="O64">
+        <v>-7.1428571428571466E-2</v>
+      </c>
+      <c r="P64">
+        <v>54</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>72</v>
+      </c>
+      <c r="R64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
+        <v>0.43707941778080778</v>
+      </c>
+      <c r="C65">
+        <v>-4.3310704651232143E-2</v>
+      </c>
+      <c r="D65">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="E65">
+        <v>-5.9704147274182932E-2</v>
+      </c>
+      <c r="F65">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="G65">
+        <v>-5.6383956363205402E-2</v>
+      </c>
+      <c r="H65">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="I65">
+        <v>-6.2505558355320026E-2</v>
+      </c>
+      <c r="J65">
+        <v>0.27013606853822641</v>
+      </c>
+      <c r="K65">
+        <v>1.1057421516022421E-2</v>
+      </c>
+      <c r="L65">
+        <v>-6.779711261969025E-2</v>
+      </c>
+      <c r="M65">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="N65">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="O65">
+        <v>-7.1428571428571702E-2</v>
+      </c>
+      <c r="P65">
+        <v>55</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
+        <v>0.24459484574402179</v>
+      </c>
+      <c r="C66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E66">
+        <v>-5.8310618262916752E-2</v>
+      </c>
+      <c r="F66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G66">
+        <v>-5.1372196753810023E-2</v>
+      </c>
+      <c r="H66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="I66">
+        <v>-6.2863957378267943E-2</v>
+      </c>
+      <c r="J66">
+        <v>0.3757743774005699</v>
+      </c>
+      <c r="K66">
+        <v>9.6069260314706945E-2</v>
+      </c>
+      <c r="L66">
+        <v>-4.3891711064304409E-2</v>
+      </c>
+      <c r="M66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O66">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P66">
+        <v>56</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>72</v>
+      </c>
+      <c r="R66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>0.20347139612847401</v>
+      </c>
+      <c r="C67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="D67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="E67">
+        <v>-5.7261814642586811E-2</v>
+      </c>
+      <c r="F67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="G67">
+        <v>-4.7853357845787967E-2</v>
+      </c>
+      <c r="H67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="I67">
+        <v>-5.8883962366173007E-2</v>
+      </c>
+      <c r="J67">
+        <v>0.41629717746296102</v>
+      </c>
+      <c r="K67">
+        <v>0.1156591326916836</v>
+      </c>
+      <c r="L67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="M67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="N67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="O67">
+        <v>-7.1428571428571577E-2</v>
+      </c>
+      <c r="P67">
+        <v>57</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>72</v>
+      </c>
+      <c r="R67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>0.23628710293351779</v>
+      </c>
+      <c r="C68">
+        <v>-7.1428571428572174E-2</v>
+      </c>
+      <c r="D68">
+        <v>-6.7985882080658006E-2</v>
+      </c>
+      <c r="E68">
+        <v>-3.6090377827924243E-2</v>
+      </c>
+      <c r="F68">
+        <v>-6.3429381473124671E-2</v>
+      </c>
+      <c r="G68">
+        <v>-3.5786611120755103E-2</v>
+      </c>
+      <c r="H68">
+        <v>-6.2720592489730359E-2</v>
+      </c>
+      <c r="I68">
+        <v>-3.9735578313950769E-2</v>
+      </c>
+      <c r="J68">
+        <v>0.3270120928079609</v>
+      </c>
+      <c r="K68">
+        <v>6.1331944685523009E-3</v>
+      </c>
+      <c r="L68">
+        <v>1.9600185153039879E-2</v>
+      </c>
+      <c r="M68">
+        <v>-6.8998437771220972E-2</v>
+      </c>
+      <c r="N68">
+        <v>-7.1428571428572174E-2</v>
+      </c>
+      <c r="O68">
+        <v>-7.1428571428572174E-2</v>
+      </c>
+      <c r="P68">
+        <v>58</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>72</v>
+      </c>
+      <c r="R68" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
